--- a/Dados jogos NBA 2021/nba2021.xlsx
+++ b/Dados jogos NBA 2021/nba2021.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$F$223</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="396">
   <si>
     <t>date</t>
   </si>
@@ -706,6 +709,504 @@
   </si>
   <si>
     <t>Clippers-Hornets</t>
+  </si>
+  <si>
+    <t>76ers-Knicks</t>
+  </si>
+  <si>
+    <t>Grizzlies-Tim</t>
+  </si>
+  <si>
+    <t>Mavericks-Pelicans</t>
+  </si>
+  <si>
+    <t>Bulls-Nets</t>
+  </si>
+  <si>
+    <t>Nuggets-Heat</t>
+  </si>
+  <si>
+    <t>Lakers-Hornets</t>
+  </si>
+  <si>
+    <t>Jazz-Hawks</t>
+  </si>
+  <si>
+    <t>Warriors-Hawks</t>
+  </si>
+  <si>
+    <t>76ers-Bucks</t>
+  </si>
+  <si>
+    <t>Cavaliers-Wizards</t>
+  </si>
+  <si>
+    <t>Magic-Nets</t>
+  </si>
+  <si>
+    <t>Rockets-Pistons</t>
+  </si>
+  <si>
+    <t>Knicks-Bucks</t>
+  </si>
+  <si>
+    <t>Grizzlies-Hornets</t>
+  </si>
+  <si>
+    <t>Bulls-Mavericks</t>
+  </si>
+  <si>
+    <t>Pelicans-Thunder</t>
+  </si>
+  <si>
+    <t>Spurs-Kings</t>
+  </si>
+  <si>
+    <t>Nuggets-Pacers</t>
+  </si>
+  <si>
+    <t>Lakers-Heat</t>
+  </si>
+  <si>
+    <t>Warriors-Tim</t>
+  </si>
+  <si>
+    <t>Jazz-Pacers</t>
+  </si>
+  <si>
+    <t>Clippers-Heat</t>
+  </si>
+  <si>
+    <t>Celtics-Bucks</t>
+  </si>
+  <si>
+    <t>Pelicans-Nets</t>
+  </si>
+  <si>
+    <t>Thunder-Kings</t>
+  </si>
+  <si>
+    <t>Hornets-Knicks</t>
+  </si>
+  <si>
+    <t>Cavaliers-Pistons</t>
+  </si>
+  <si>
+    <t>Rockets-Blazers</t>
+  </si>
+  <si>
+    <t>Grizzlies-Suns</t>
+  </si>
+  <si>
+    <t>Nuggets-Hawks</t>
+  </si>
+  <si>
+    <t>Warriors-Bulls</t>
+  </si>
+  <si>
+    <t>Jazz-Heat</t>
+  </si>
+  <si>
+    <t>Magic-Wizards</t>
+  </si>
+  <si>
+    <t>Raptors-Pistons</t>
+  </si>
+  <si>
+    <t>Lakers-Tim</t>
+  </si>
+  <si>
+    <t>Pelicans-Grizzlies</t>
+  </si>
+  <si>
+    <t>Pacers-76ers</t>
+  </si>
+  <si>
+    <t>Cavaliers-Celtics</t>
+  </si>
+  <si>
+    <t>Lakers-Spurs</t>
+  </si>
+  <si>
+    <t>Thunder-Nets</t>
+  </si>
+  <si>
+    <t>Rochets-Suns</t>
+  </si>
+  <si>
+    <t>Clippers-Bulls</t>
+  </si>
+  <si>
+    <t>Hawks-Bucks</t>
+  </si>
+  <si>
+    <t>Hornets-Warriors</t>
+  </si>
+  <si>
+    <t>Nuggets-Blazers</t>
+  </si>
+  <si>
+    <t>Wizards-Pelicans</t>
+  </si>
+  <si>
+    <t>Mavericks-Nuggets</t>
+  </si>
+  <si>
+    <t>Tim-Suns</t>
+  </si>
+  <si>
+    <t>Pistons-Kings</t>
+  </si>
+  <si>
+    <t>Hawks-Magic</t>
+  </si>
+  <si>
+    <t>Thunder-Heat</t>
+  </si>
+  <si>
+    <t>Grizzlies-Rockets</t>
+  </si>
+  <si>
+    <t>Blazers-Raptors</t>
+  </si>
+  <si>
+    <t>Nets-Warriors</t>
+  </si>
+  <si>
+    <t>Lakers-Bulls</t>
+  </si>
+  <si>
+    <t>Jazz-76ers</t>
+  </si>
+  <si>
+    <t>Clippers-Spurs</t>
+  </si>
+  <si>
+    <t>Pistons-Pacers</t>
+  </si>
+  <si>
+    <t>Hornets-Wizards</t>
+  </si>
+  <si>
+    <t>Hawks-Celtics</t>
+  </si>
+  <si>
+    <t>Nets-Cavaliers</t>
+  </si>
+  <si>
+    <t>Heat-Pelicans</t>
+  </si>
+  <si>
+    <t>Bucks-Lakers</t>
+  </si>
+  <si>
+    <t>Thunder-Rockets</t>
+  </si>
+  <si>
+    <t>Tim-Kings</t>
+  </si>
+  <si>
+    <t>Suns-Mavericks</t>
+  </si>
+  <si>
+    <t>Blazers-Bulls</t>
+  </si>
+  <si>
+    <t>Heat-Wizards</t>
+  </si>
+  <si>
+    <t>Cavaliers-Warriors</t>
+  </si>
+  <si>
+    <t>Tim-Spurs</t>
+  </si>
+  <si>
+    <t>Grizzlies-Clippers</t>
+  </si>
+  <si>
+    <t>Nuggets-76ers</t>
+  </si>
+  <si>
+    <t>Jazz-Raptors</t>
+  </si>
+  <si>
+    <t>Pistons-Warriors</t>
+  </si>
+  <si>
+    <t>Nets-Magic</t>
+  </si>
+  <si>
+    <t>Celtics-Lakers</t>
+  </si>
+  <si>
+    <t>Pelicans-Clippers</t>
+  </si>
+  <si>
+    <t>Nuggets-Bulls</t>
+  </si>
+  <si>
+    <t>King-Raptors</t>
+  </si>
+  <si>
+    <t>Knicks-Rockets</t>
+  </si>
+  <si>
+    <t>Wizards-Heat</t>
+  </si>
+  <si>
+    <t>Pacers-Pelicans</t>
+  </si>
+  <si>
+    <t>Celtics-Thunder</t>
+  </si>
+  <si>
+    <t>Hawks-Hornets</t>
+  </si>
+  <si>
+    <t>Bucks-Magic</t>
+  </si>
+  <si>
+    <t>Tim-Grizzlies</t>
+  </si>
+  <si>
+    <t>Blazers-76ers</t>
+  </si>
+  <si>
+    <t>Clippers-Mavericks</t>
+  </si>
+  <si>
+    <t>Pistons-Lakers</t>
+  </si>
+  <si>
+    <t>Warriors-Raptors</t>
+  </si>
+  <si>
+    <t>Wizards-Hornets</t>
+  </si>
+  <si>
+    <t>Cavaliers-Nets</t>
+  </si>
+  <si>
+    <t>Hawks-Thunder</t>
+  </si>
+  <si>
+    <t>Celtics-Rockets</t>
+  </si>
+  <si>
+    <t>Pelicans-Tim</t>
+  </si>
+  <si>
+    <t>Bulls-Pacers</t>
+  </si>
+  <si>
+    <t>Spurs-Suns</t>
+  </si>
+  <si>
+    <t>Jazz-Grizzlies</t>
+  </si>
+  <si>
+    <t>Kings-76ers</t>
+  </si>
+  <si>
+    <t>Pistons-Heat</t>
+  </si>
+  <si>
+    <t>Knicks-Lakers</t>
+  </si>
+  <si>
+    <t>Blazers-Nuggets</t>
+  </si>
+  <si>
+    <t>Pacers-Lakers</t>
+  </si>
+  <si>
+    <t>Cavaliers-Suns</t>
+  </si>
+  <si>
+    <t>Celtics-Nets</t>
+  </si>
+  <si>
+    <t>Pelicans-Wizards</t>
+  </si>
+  <si>
+    <t>Rockets-Bulls</t>
+  </si>
+  <si>
+    <t>Tim-Heat</t>
+  </si>
+  <si>
+    <t>Thunder-Jazz</t>
+  </si>
+  <si>
+    <t>Bucks-Pistons</t>
+  </si>
+  <si>
+    <t>Grizzlies-Raptors</t>
+  </si>
+  <si>
+    <t>Spurs-Hawks</t>
+  </si>
+  <si>
+    <t>Warriors-76ers</t>
+  </si>
+  <si>
+    <t>Kings-Blazers</t>
+  </si>
+  <si>
+    <t>Clippers-Pistons</t>
+  </si>
+  <si>
+    <t>Magic-Bulls</t>
+  </si>
+  <si>
+    <t>Knicks-Suns</t>
+  </si>
+  <si>
+    <t>Honerts-Tim</t>
+  </si>
+  <si>
+    <t>Thunder-Wizards</t>
+  </si>
+  <si>
+    <t>Spurs-Celtics</t>
+  </si>
+  <si>
+    <t>Nuggets-Bucks</t>
+  </si>
+  <si>
+    <t>Lakers-Kings</t>
+  </si>
+  <si>
+    <t>76ers-Tim</t>
+  </si>
+  <si>
+    <t>Nets-Suns</t>
+  </si>
+  <si>
+    <t>Hawks-Knicks</t>
+  </si>
+  <si>
+    <t>Cavaliers-Magic</t>
+  </si>
+  <si>
+    <t>Bulls-Heat</t>
+  </si>
+  <si>
+    <t>Rockets-Hornets</t>
+  </si>
+  <si>
+    <t>Mavericks-Wizards</t>
+  </si>
+  <si>
+    <t>Clippers-Warriors</t>
+  </si>
+  <si>
+    <t>Grizzlies-Kings</t>
+  </si>
+  <si>
+    <t>Raptors-Celtics</t>
+  </si>
+  <si>
+    <t>Lakers-Pistons</t>
+  </si>
+  <si>
+    <t>76ers-Magic</t>
+  </si>
+  <si>
+    <t>Heat-Nuggets</t>
+  </si>
+  <si>
+    <t>Tim-Pacers</t>
+  </si>
+  <si>
+    <t>Bulls-Hornets</t>
+  </si>
+  <si>
+    <t>Spurs-Wizards</t>
+  </si>
+  <si>
+    <t>Mavericks-Cavaliers</t>
+  </si>
+  <si>
+    <t>Jazz-Blazers</t>
+  </si>
+  <si>
+    <t>Clippers-Pelicans</t>
+  </si>
+  <si>
+    <t>Raptor-Grizzlies</t>
+  </si>
+  <si>
+    <t>Nets-Knicks</t>
+  </si>
+  <si>
+    <t>Hawks-Pacers</t>
+  </si>
+  <si>
+    <t>Nuggets-Magic</t>
+  </si>
+  <si>
+    <t>Tim-Wizards</t>
+  </si>
+  <si>
+    <t>76ers-Celtics</t>
+  </si>
+  <si>
+    <t>Cavaliers-Heat</t>
+  </si>
+  <si>
+    <t>Hornets-Bucks</t>
+  </si>
+  <si>
+    <t>Kings-Clippers</t>
+  </si>
+  <si>
+    <t>Bucks-Raptors</t>
+  </si>
+  <si>
+    <t>Thunder-Grizzlies</t>
+  </si>
+  <si>
+    <t>Pistons-Suns</t>
+  </si>
+  <si>
+    <t>Spurs-Blazers</t>
+  </si>
+  <si>
+    <t>Wizards-Cavalies</t>
+  </si>
+  <si>
+    <t>Hawks-76ers</t>
+  </si>
+  <si>
+    <t>Rockets-Magic</t>
+  </si>
+  <si>
+    <t>Jazz-Celtics</t>
+  </si>
+  <si>
+    <t>Lakers-Clippers</t>
+  </si>
+  <si>
+    <t>Knicks-Nuggets</t>
+  </si>
+  <si>
+    <t>Bucks-Heat</t>
+  </si>
+  <si>
+    <t>Mavericks-Grizzlies</t>
+  </si>
+  <si>
+    <t>Warriors-Suns</t>
+  </si>
+  <si>
+    <t>Nets-Bulls</t>
+  </si>
+  <si>
+    <t>Warriors-Spurs</t>
+  </si>
+  <si>
+    <t>Blazers-Celtics</t>
   </si>
 </sst>
 </file>
@@ -1038,10 +1539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F213"/>
+  <dimension ref="A1:F412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="B214" sqref="B214"/>
+    <sheetView tabSelected="1" topLeftCell="A402" workbookViewId="0">
+      <selection activeCell="B413" sqref="B413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5311,6 +5812,3986 @@
       </c>
       <c r="F213">
         <v>106</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="1">
+        <v>44508</v>
+      </c>
+      <c r="B214" t="s">
+        <v>230</v>
+      </c>
+      <c r="C214" t="s">
+        <v>37</v>
+      </c>
+      <c r="D214">
+        <v>103</v>
+      </c>
+      <c r="E214" t="s">
+        <v>11</v>
+      </c>
+      <c r="F214">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="1">
+        <v>44508</v>
+      </c>
+      <c r="B215" t="s">
+        <v>231</v>
+      </c>
+      <c r="C215" t="s">
+        <v>46</v>
+      </c>
+      <c r="D215">
+        <v>125</v>
+      </c>
+      <c r="E215" t="s">
+        <v>19</v>
+      </c>
+      <c r="F215">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="1">
+        <v>44508</v>
+      </c>
+      <c r="B216" t="s">
+        <v>232</v>
+      </c>
+      <c r="C216" t="s">
+        <v>54</v>
+      </c>
+      <c r="D216">
+        <v>108</v>
+      </c>
+      <c r="E216" t="s">
+        <v>20</v>
+      </c>
+      <c r="F216">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="1">
+        <v>44508</v>
+      </c>
+      <c r="B217" t="s">
+        <v>233</v>
+      </c>
+      <c r="C217" t="s">
+        <v>43</v>
+      </c>
+      <c r="D217">
+        <v>118</v>
+      </c>
+      <c r="E217" t="s">
+        <v>7</v>
+      </c>
+      <c r="F217">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="1">
+        <v>44508</v>
+      </c>
+      <c r="B218" t="s">
+        <v>234</v>
+      </c>
+      <c r="C218" t="s">
+        <v>35</v>
+      </c>
+      <c r="D218">
+        <v>113</v>
+      </c>
+      <c r="E218" t="s">
+        <v>13</v>
+      </c>
+      <c r="F218">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="1">
+        <v>44509</v>
+      </c>
+      <c r="B219" t="s">
+        <v>27</v>
+      </c>
+      <c r="C219" t="s">
+        <v>29</v>
+      </c>
+      <c r="D219">
+        <v>109</v>
+      </c>
+      <c r="E219" t="s">
+        <v>28</v>
+      </c>
+      <c r="F219">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="1">
+        <v>44509</v>
+      </c>
+      <c r="B220" t="s">
+        <v>235</v>
+      </c>
+      <c r="C220" t="s">
+        <v>8</v>
+      </c>
+      <c r="D220">
+        <v>126</v>
+      </c>
+      <c r="E220" t="s">
+        <v>22</v>
+      </c>
+      <c r="F220">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="1">
+        <v>44509</v>
+      </c>
+      <c r="B221" t="s">
+        <v>236</v>
+      </c>
+      <c r="C221" t="s">
+        <v>26</v>
+      </c>
+      <c r="D221">
+        <v>110</v>
+      </c>
+      <c r="E221" t="s">
+        <v>14</v>
+      </c>
+      <c r="F221">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="1">
+        <v>44509</v>
+      </c>
+      <c r="B222" t="s">
+        <v>237</v>
+      </c>
+      <c r="C222" t="s">
+        <v>31</v>
+      </c>
+      <c r="D222">
+        <v>127</v>
+      </c>
+      <c r="E222" t="s">
+        <v>14</v>
+      </c>
+      <c r="F222">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="1">
+        <v>44509</v>
+      </c>
+      <c r="B223" t="s">
+        <v>238</v>
+      </c>
+      <c r="C223" t="s">
+        <v>47</v>
+      </c>
+      <c r="D223">
+        <v>118</v>
+      </c>
+      <c r="E223" t="s">
+        <v>11</v>
+      </c>
+      <c r="F223">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="1">
+        <v>44510</v>
+      </c>
+      <c r="B224" t="s">
+        <v>141</v>
+      </c>
+      <c r="C224" t="s">
+        <v>34</v>
+      </c>
+      <c r="D224">
+        <v>117</v>
+      </c>
+      <c r="E224" t="s">
+        <v>32</v>
+      </c>
+      <c r="F224">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="1">
+        <v>44510</v>
+      </c>
+      <c r="B225" t="s">
+        <v>239</v>
+      </c>
+      <c r="C225" t="s">
+        <v>41</v>
+      </c>
+      <c r="D225">
+        <v>97</v>
+      </c>
+      <c r="E225" t="s">
+        <v>44</v>
+      </c>
+      <c r="F225">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="1">
+        <v>44510</v>
+      </c>
+      <c r="B226" t="s">
+        <v>240</v>
+      </c>
+      <c r="C226" t="s">
+        <v>7</v>
+      </c>
+      <c r="D226">
+        <v>112</v>
+      </c>
+      <c r="E226" t="s">
+        <v>17</v>
+      </c>
+      <c r="F226">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="1">
+        <v>44510</v>
+      </c>
+      <c r="B227" t="s">
+        <v>241</v>
+      </c>
+      <c r="C227" t="s">
+        <v>50</v>
+      </c>
+      <c r="D227">
+        <v>112</v>
+      </c>
+      <c r="E227" t="s">
+        <v>40</v>
+      </c>
+      <c r="F227">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="1">
+        <v>44510</v>
+      </c>
+      <c r="B228" t="s">
+        <v>242</v>
+      </c>
+      <c r="C228" t="s">
+        <v>47</v>
+      </c>
+      <c r="D228">
+        <v>112</v>
+      </c>
+      <c r="E228" t="s">
+        <v>37</v>
+      </c>
+      <c r="F228">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="1">
+        <v>44510</v>
+      </c>
+      <c r="B229" t="s">
+        <v>67</v>
+      </c>
+      <c r="C229" t="s">
+        <v>16</v>
+      </c>
+      <c r="D229">
+        <v>104</v>
+      </c>
+      <c r="E229" t="s">
+        <v>10</v>
+      </c>
+      <c r="F229">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="1">
+        <v>44510</v>
+      </c>
+      <c r="B230" t="s">
+        <v>243</v>
+      </c>
+      <c r="C230" t="s">
+        <v>22</v>
+      </c>
+      <c r="D230">
+        <v>118</v>
+      </c>
+      <c r="E230" t="s">
+        <v>46</v>
+      </c>
+      <c r="F230">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="1">
+        <v>44510</v>
+      </c>
+      <c r="B231" t="s">
+        <v>244</v>
+      </c>
+      <c r="C231" t="s">
+        <v>43</v>
+      </c>
+      <c r="D231">
+        <v>117</v>
+      </c>
+      <c r="E231" t="s">
+        <v>54</v>
+      </c>
+      <c r="F231">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="1">
+        <v>44510</v>
+      </c>
+      <c r="B232" t="s">
+        <v>245</v>
+      </c>
+      <c r="C232" t="s">
+        <v>23</v>
+      </c>
+      <c r="D232">
+        <v>108</v>
+      </c>
+      <c r="E232" t="s">
+        <v>20</v>
+      </c>
+      <c r="F232">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" s="1">
+        <v>44510</v>
+      </c>
+      <c r="B233" t="s">
+        <v>246</v>
+      </c>
+      <c r="C233" t="s">
+        <v>25</v>
+      </c>
+      <c r="D233">
+        <v>136</v>
+      </c>
+      <c r="E233" t="s">
+        <v>28</v>
+      </c>
+      <c r="F233">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="1">
+        <v>44510</v>
+      </c>
+      <c r="B234" t="s">
+        <v>247</v>
+      </c>
+      <c r="C234" t="s">
+        <v>35</v>
+      </c>
+      <c r="D234">
+        <v>101</v>
+      </c>
+      <c r="E234" t="s">
+        <v>38</v>
+      </c>
+      <c r="F234">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="1">
+        <v>44510</v>
+      </c>
+      <c r="B235" t="s">
+        <v>83</v>
+      </c>
+      <c r="C235" t="s">
+        <v>29</v>
+      </c>
+      <c r="D235">
+        <v>119</v>
+      </c>
+      <c r="E235" t="s">
+        <v>32</v>
+      </c>
+      <c r="F235">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="1">
+        <v>44511</v>
+      </c>
+      <c r="B236" t="s">
+        <v>248</v>
+      </c>
+      <c r="C236" t="s">
+        <v>8</v>
+      </c>
+      <c r="D236">
+        <v>120</v>
+      </c>
+      <c r="E236" t="s">
+        <v>13</v>
+      </c>
+      <c r="F236">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="1">
+        <v>44511</v>
+      </c>
+      <c r="B237" t="s">
+        <v>57</v>
+      </c>
+      <c r="C237" t="s">
+        <v>10</v>
+      </c>
+      <c r="D237">
+        <v>115</v>
+      </c>
+      <c r="E237" t="s">
+        <v>11</v>
+      </c>
+      <c r="F237">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="1">
+        <v>44511</v>
+      </c>
+      <c r="B238" t="s">
+        <v>249</v>
+      </c>
+      <c r="C238" t="s">
+        <v>31</v>
+      </c>
+      <c r="D238">
+        <v>123</v>
+      </c>
+      <c r="E238" t="s">
+        <v>19</v>
+      </c>
+      <c r="F238">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="1">
+        <v>44511</v>
+      </c>
+      <c r="B239" t="s">
+        <v>250</v>
+      </c>
+      <c r="C239" t="s">
+        <v>38</v>
+      </c>
+      <c r="D239">
+        <v>111</v>
+      </c>
+      <c r="E239" t="s">
+        <v>26</v>
+      </c>
+      <c r="F239">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="1">
+        <v>44512</v>
+      </c>
+      <c r="B240" t="s">
+        <v>251</v>
+      </c>
+      <c r="C240" t="s">
+        <v>34</v>
+      </c>
+      <c r="D240">
+        <v>112</v>
+      </c>
+      <c r="E240" t="s">
+        <v>13</v>
+      </c>
+      <c r="F240">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" s="1">
+        <v>44512</v>
+      </c>
+      <c r="B241" t="s">
+        <v>252</v>
+      </c>
+      <c r="C241" t="s">
+        <v>16</v>
+      </c>
+      <c r="D241">
+        <v>122</v>
+      </c>
+      <c r="E241" t="s">
+        <v>47</v>
+      </c>
+      <c r="F241">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="1">
+        <v>44512</v>
+      </c>
+      <c r="B242" t="s">
+        <v>253</v>
+      </c>
+      <c r="C242" t="s">
+        <v>7</v>
+      </c>
+      <c r="D242">
+        <v>120</v>
+      </c>
+      <c r="E242" t="s">
+        <v>20</v>
+      </c>
+      <c r="F242">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="1">
+        <v>44512</v>
+      </c>
+      <c r="B243" t="s">
+        <v>254</v>
+      </c>
+      <c r="C243" t="s">
+        <v>23</v>
+      </c>
+      <c r="D243">
+        <v>105</v>
+      </c>
+      <c r="E243" t="s">
+        <v>28</v>
+      </c>
+      <c r="F243">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" s="1">
+        <v>44512</v>
+      </c>
+      <c r="B244" t="s">
+        <v>255</v>
+      </c>
+      <c r="C244" t="s">
+        <v>22</v>
+      </c>
+      <c r="D244">
+        <v>104</v>
+      </c>
+      <c r="E244" t="s">
+        <v>37</v>
+      </c>
+      <c r="F244">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="1">
+        <v>44512</v>
+      </c>
+      <c r="B245" t="s">
+        <v>256</v>
+      </c>
+      <c r="C245" t="s">
+        <v>44</v>
+      </c>
+      <c r="D245">
+        <v>98</v>
+      </c>
+      <c r="E245" t="s">
+        <v>50</v>
+      </c>
+      <c r="F245">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="1">
+        <v>44512</v>
+      </c>
+      <c r="B246" t="s">
+        <v>257</v>
+      </c>
+      <c r="C246" t="s">
+        <v>32</v>
+      </c>
+      <c r="D246">
+        <v>104</v>
+      </c>
+      <c r="E246" t="s">
+        <v>40</v>
+      </c>
+      <c r="F246">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" s="1">
+        <v>44512</v>
+      </c>
+      <c r="B247" t="s">
+        <v>258</v>
+      </c>
+      <c r="C247" t="s">
+        <v>29</v>
+      </c>
+      <c r="D247">
+        <v>119</v>
+      </c>
+      <c r="E247" t="s">
+        <v>46</v>
+      </c>
+      <c r="F247">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="1">
+        <v>44512</v>
+      </c>
+      <c r="B248" t="s">
+        <v>203</v>
+      </c>
+      <c r="C248" t="s">
+        <v>54</v>
+      </c>
+      <c r="D248">
+        <v>123</v>
+      </c>
+      <c r="E248" t="s">
+        <v>25</v>
+      </c>
+      <c r="F248">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="1">
+        <v>44512</v>
+      </c>
+      <c r="B249" t="s">
+        <v>259</v>
+      </c>
+      <c r="C249" t="s">
+        <v>35</v>
+      </c>
+      <c r="D249">
+        <v>105</v>
+      </c>
+      <c r="E249" t="s">
+        <v>14</v>
+      </c>
+      <c r="F249">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" s="1">
+        <v>44513</v>
+      </c>
+      <c r="B250" t="s">
+        <v>260</v>
+      </c>
+      <c r="C250" t="s">
+        <v>31</v>
+      </c>
+      <c r="D250">
+        <v>119</v>
+      </c>
+      <c r="E250" t="s">
+        <v>43</v>
+      </c>
+      <c r="F250">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" s="1">
+        <v>44513</v>
+      </c>
+      <c r="B251" t="s">
+        <v>261</v>
+      </c>
+      <c r="C251" t="s">
+        <v>13</v>
+      </c>
+      <c r="D251">
+        <v>111</v>
+      </c>
+      <c r="E251" t="s">
+        <v>26</v>
+      </c>
+      <c r="F251">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" s="1">
+        <v>44513</v>
+      </c>
+      <c r="B252" t="s">
+        <v>262</v>
+      </c>
+      <c r="C252" t="s">
+        <v>41</v>
+      </c>
+      <c r="D252">
+        <v>104</v>
+      </c>
+      <c r="E252" t="s">
+        <v>17</v>
+      </c>
+      <c r="F252">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" s="1">
+        <v>44513</v>
+      </c>
+      <c r="B253" t="s">
+        <v>263</v>
+      </c>
+      <c r="C253" t="s">
+        <v>50</v>
+      </c>
+      <c r="D253">
+        <v>127</v>
+      </c>
+      <c r="E253" t="s">
+        <v>10</v>
+      </c>
+      <c r="F253">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" s="1">
+        <v>44513</v>
+      </c>
+      <c r="B254" t="s">
+        <v>264</v>
+      </c>
+      <c r="C254" t="s">
+        <v>19</v>
+      </c>
+      <c r="D254">
+        <v>107</v>
+      </c>
+      <c r="E254" t="s">
+        <v>8</v>
+      </c>
+      <c r="F254">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" s="1">
+        <v>44513</v>
+      </c>
+      <c r="B255" t="s">
+        <v>265</v>
+      </c>
+      <c r="C255" t="s">
+        <v>20</v>
+      </c>
+      <c r="D255">
+        <v>112</v>
+      </c>
+      <c r="E255" t="s">
+        <v>46</v>
+      </c>
+      <c r="F255">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" s="1">
+        <v>44513</v>
+      </c>
+      <c r="B256" t="s">
+        <v>266</v>
+      </c>
+      <c r="C256" t="s">
+        <v>38</v>
+      </c>
+      <c r="D256">
+        <v>118</v>
+      </c>
+      <c r="E256" t="s">
+        <v>11</v>
+      </c>
+      <c r="F256">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="1">
+        <v>44513</v>
+      </c>
+      <c r="B257" t="s">
+        <v>267</v>
+      </c>
+      <c r="C257" t="s">
+        <v>44</v>
+      </c>
+      <c r="D257">
+        <v>91</v>
+      </c>
+      <c r="E257" t="s">
+        <v>16</v>
+      </c>
+      <c r="F257">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" s="1">
+        <v>44514</v>
+      </c>
+      <c r="B258" t="s">
+        <v>268</v>
+      </c>
+      <c r="C258" t="s">
+        <v>8</v>
+      </c>
+      <c r="D258">
+        <v>114</v>
+      </c>
+      <c r="E258" t="s">
+        <v>25</v>
+      </c>
+      <c r="F258">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" s="1">
+        <v>44514</v>
+      </c>
+      <c r="B259" t="s">
+        <v>269</v>
+      </c>
+      <c r="C259" t="s">
+        <v>7</v>
+      </c>
+      <c r="D259">
+        <v>120</v>
+      </c>
+      <c r="E259" t="s">
+        <v>23</v>
+      </c>
+      <c r="F259">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" s="1">
+        <v>44514</v>
+      </c>
+      <c r="B260" t="s">
+        <v>270</v>
+      </c>
+      <c r="C260" t="s">
+        <v>29</v>
+      </c>
+      <c r="D260">
+        <v>115</v>
+      </c>
+      <c r="E260" t="s">
+        <v>40</v>
+      </c>
+      <c r="F260">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" s="1">
+        <v>44514</v>
+      </c>
+      <c r="B261" t="s">
+        <v>271</v>
+      </c>
+      <c r="C261" t="s">
+        <v>43</v>
+      </c>
+      <c r="D261">
+        <v>100</v>
+      </c>
+      <c r="E261" t="s">
+        <v>34</v>
+      </c>
+      <c r="F261">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" s="1">
+        <v>44514</v>
+      </c>
+      <c r="B262" t="s">
+        <v>80</v>
+      </c>
+      <c r="C262" t="s">
+        <v>34</v>
+      </c>
+      <c r="D262">
+        <v>129</v>
+      </c>
+      <c r="E262" t="s">
+        <v>19</v>
+      </c>
+      <c r="F262">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" s="1">
+        <v>44514</v>
+      </c>
+      <c r="B263" t="s">
+        <v>272</v>
+      </c>
+      <c r="C263" t="s">
+        <v>14</v>
+      </c>
+      <c r="D263">
+        <v>120</v>
+      </c>
+      <c r="E263" t="s">
+        <v>47</v>
+      </c>
+      <c r="F263">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" s="1">
+        <v>44514</v>
+      </c>
+      <c r="B264" t="s">
+        <v>273</v>
+      </c>
+      <c r="C264" t="s">
+        <v>22</v>
+      </c>
+      <c r="D264">
+        <v>106</v>
+      </c>
+      <c r="E264" t="s">
+        <v>31</v>
+      </c>
+      <c r="F264">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" s="1">
+        <v>44514</v>
+      </c>
+      <c r="B265" t="s">
+        <v>274</v>
+      </c>
+      <c r="C265" t="s">
+        <v>35</v>
+      </c>
+      <c r="D265">
+        <v>124</v>
+      </c>
+      <c r="E265" t="s">
+        <v>32</v>
+      </c>
+      <c r="F265">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B266" t="s">
+        <v>275</v>
+      </c>
+      <c r="C266" t="s">
+        <v>41</v>
+      </c>
+      <c r="D266">
+        <v>105</v>
+      </c>
+      <c r="E266" t="s">
+        <v>20</v>
+      </c>
+      <c r="F266">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B267" t="s">
+        <v>36</v>
+      </c>
+      <c r="C267" t="s">
+        <v>37</v>
+      </c>
+      <c r="D267">
+        <v>92</v>
+      </c>
+      <c r="E267" t="s">
+        <v>38</v>
+      </c>
+      <c r="F267">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B268" t="s">
+        <v>276</v>
+      </c>
+      <c r="C268" t="s">
+        <v>54</v>
+      </c>
+      <c r="D268">
+        <v>111</v>
+      </c>
+      <c r="E268" t="s">
+        <v>35</v>
+      </c>
+      <c r="F268">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B269" t="s">
+        <v>277</v>
+      </c>
+      <c r="C269" t="s">
+        <v>29</v>
+      </c>
+      <c r="D269">
+        <v>99</v>
+      </c>
+      <c r="E269" t="s">
+        <v>19</v>
+      </c>
+      <c r="F269">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B270" t="s">
+        <v>278</v>
+      </c>
+      <c r="C270" t="s">
+        <v>28</v>
+      </c>
+      <c r="D270">
+        <v>129</v>
+      </c>
+      <c r="E270" t="s">
+        <v>50</v>
+      </c>
+      <c r="F270">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B271" t="s">
+        <v>267</v>
+      </c>
+      <c r="C271" t="s">
+        <v>16</v>
+      </c>
+      <c r="D271">
+        <v>98</v>
+      </c>
+      <c r="E271" t="s">
+        <v>44</v>
+      </c>
+      <c r="F271">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B272" t="s">
+        <v>279</v>
+      </c>
+      <c r="C272" t="s">
+        <v>14</v>
+      </c>
+      <c r="D272">
+        <v>129</v>
+      </c>
+      <c r="E272" t="s">
+        <v>17</v>
+      </c>
+      <c r="F272">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B273" t="s">
+        <v>280</v>
+      </c>
+      <c r="C273" t="s">
+        <v>13</v>
+      </c>
+      <c r="D273">
+        <v>103</v>
+      </c>
+      <c r="E273" t="s">
+        <v>23</v>
+      </c>
+      <c r="F273">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B274" t="s">
+        <v>281</v>
+      </c>
+      <c r="C274" t="s">
+        <v>46</v>
+      </c>
+      <c r="D274">
+        <v>136</v>
+      </c>
+      <c r="E274" t="s">
+        <v>40</v>
+      </c>
+      <c r="F274">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" s="1">
+        <v>44516</v>
+      </c>
+      <c r="B275" t="s">
+        <v>282</v>
+      </c>
+      <c r="C275" t="s">
+        <v>32</v>
+      </c>
+      <c r="D275">
+        <v>118</v>
+      </c>
+      <c r="E275" t="s">
+        <v>10</v>
+      </c>
+      <c r="F275">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" s="1">
+        <v>44516</v>
+      </c>
+      <c r="B276" t="s">
+        <v>283</v>
+      </c>
+      <c r="C276" t="s">
+        <v>31</v>
+      </c>
+      <c r="D276">
+        <v>117</v>
+      </c>
+      <c r="E276" t="s">
+        <v>7</v>
+      </c>
+      <c r="F276">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" s="1">
+        <v>44516</v>
+      </c>
+      <c r="B277" t="s">
+        <v>284</v>
+      </c>
+      <c r="C277" t="s">
+        <v>43</v>
+      </c>
+      <c r="D277">
+        <v>121</v>
+      </c>
+      <c r="E277" t="s">
+        <v>8</v>
+      </c>
+      <c r="F277">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" s="1">
+        <v>44517</v>
+      </c>
+      <c r="B278" t="s">
+        <v>285</v>
+      </c>
+      <c r="C278" t="s">
+        <v>26</v>
+      </c>
+      <c r="D278">
+        <v>120</v>
+      </c>
+      <c r="E278" t="s">
+        <v>11</v>
+      </c>
+      <c r="F278">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" s="1">
+        <v>44517</v>
+      </c>
+      <c r="B279" t="s">
+        <v>286</v>
+      </c>
+      <c r="C279" t="s">
+        <v>34</v>
+      </c>
+      <c r="D279">
+        <v>106</v>
+      </c>
+      <c r="E279" t="s">
+        <v>25</v>
+      </c>
+      <c r="F279">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" s="1">
+        <v>44517</v>
+      </c>
+      <c r="B280" t="s">
+        <v>287</v>
+      </c>
+      <c r="C280" t="s">
+        <v>50</v>
+      </c>
+      <c r="D280">
+        <v>97</v>
+      </c>
+      <c r="E280" t="s">
+        <v>38</v>
+      </c>
+      <c r="F280">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" s="1">
+        <v>44517</v>
+      </c>
+      <c r="B281" t="s">
+        <v>288</v>
+      </c>
+      <c r="C281" t="s">
+        <v>22</v>
+      </c>
+      <c r="D281">
+        <v>97</v>
+      </c>
+      <c r="E281" t="s">
+        <v>41</v>
+      </c>
+      <c r="F281">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" s="1">
+        <v>44517</v>
+      </c>
+      <c r="B282" t="s">
+        <v>289</v>
+      </c>
+      <c r="C282" t="s">
+        <v>14</v>
+      </c>
+      <c r="D282">
+        <v>110</v>
+      </c>
+      <c r="E282" t="s">
+        <v>16</v>
+      </c>
+      <c r="F282">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" s="1">
+        <v>44517</v>
+      </c>
+      <c r="B283" t="s">
+        <v>290</v>
+      </c>
+      <c r="C283" t="s">
+        <v>7</v>
+      </c>
+      <c r="D283">
+        <v>109</v>
+      </c>
+      <c r="E283" t="s">
+        <v>44</v>
+      </c>
+      <c r="F283">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" s="1">
+        <v>44517</v>
+      </c>
+      <c r="B284" t="s">
+        <v>129</v>
+      </c>
+      <c r="C284" t="s">
+        <v>17</v>
+      </c>
+      <c r="D284">
+        <v>104</v>
+      </c>
+      <c r="E284" t="s">
+        <v>37</v>
+      </c>
+      <c r="F284">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" s="1">
+        <v>44517</v>
+      </c>
+      <c r="B285" t="s">
+        <v>291</v>
+      </c>
+      <c r="C285" t="s">
+        <v>13</v>
+      </c>
+      <c r="D285">
+        <v>113</v>
+      </c>
+      <c r="E285" t="s">
+        <v>20</v>
+      </c>
+      <c r="F285">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" s="1">
+        <v>44517</v>
+      </c>
+      <c r="B286" t="s">
+        <v>292</v>
+      </c>
+      <c r="C286" t="s">
+        <v>47</v>
+      </c>
+      <c r="D286">
+        <v>109</v>
+      </c>
+      <c r="E286" t="s">
+        <v>8</v>
+      </c>
+      <c r="F286">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" s="1">
+        <v>44517</v>
+      </c>
+      <c r="B287" t="s">
+        <v>293</v>
+      </c>
+      <c r="C287" t="s">
+        <v>23</v>
+      </c>
+      <c r="D287">
+        <v>101</v>
+      </c>
+      <c r="E287" t="s">
+        <v>40</v>
+      </c>
+      <c r="F287">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" s="1">
+        <v>44517</v>
+      </c>
+      <c r="B288" t="s">
+        <v>294</v>
+      </c>
+      <c r="C288" t="s">
+        <v>19</v>
+      </c>
+      <c r="D288">
+        <v>107</v>
+      </c>
+      <c r="E288" t="s">
+        <v>28</v>
+      </c>
+      <c r="F288">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" s="1">
+        <v>44518</v>
+      </c>
+      <c r="B289" t="s">
+        <v>295</v>
+      </c>
+      <c r="C289" t="s">
+        <v>29</v>
+      </c>
+      <c r="D289">
+        <v>105</v>
+      </c>
+      <c r="E289" t="s">
+        <v>54</v>
+      </c>
+      <c r="F289">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" s="1">
+        <v>44518</v>
+      </c>
+      <c r="B290" t="s">
+        <v>296</v>
+      </c>
+      <c r="C290" t="s">
+        <v>32</v>
+      </c>
+      <c r="D290">
+        <v>112</v>
+      </c>
+      <c r="E290" t="s">
+        <v>43</v>
+      </c>
+      <c r="F290">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" s="1">
+        <v>44518</v>
+      </c>
+      <c r="B291" t="s">
+        <v>297</v>
+      </c>
+      <c r="C291" t="s">
+        <v>13</v>
+      </c>
+      <c r="D291">
+        <v>112</v>
+      </c>
+      <c r="E291" t="s">
+        <v>41</v>
+      </c>
+      <c r="F291">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" s="1">
+        <v>44518</v>
+      </c>
+      <c r="B292" t="s">
+        <v>298</v>
+      </c>
+      <c r="C292" t="s">
+        <v>31</v>
+      </c>
+      <c r="D292">
+        <v>104</v>
+      </c>
+      <c r="E292" t="s">
+        <v>44</v>
+      </c>
+      <c r="F292">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" s="1">
+        <v>44518</v>
+      </c>
+      <c r="B293" t="s">
+        <v>299</v>
+      </c>
+      <c r="C293" t="s">
+        <v>19</v>
+      </c>
+      <c r="D293">
+        <v>115</v>
+      </c>
+      <c r="E293" t="s">
+        <v>25</v>
+      </c>
+      <c r="F293">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" s="1">
+        <v>44518</v>
+      </c>
+      <c r="B294" t="s">
+        <v>300</v>
+      </c>
+      <c r="C294" t="s">
+        <v>46</v>
+      </c>
+      <c r="D294">
+        <v>120</v>
+      </c>
+      <c r="E294" t="s">
+        <v>34</v>
+      </c>
+      <c r="F294">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295" s="1">
+        <v>44518</v>
+      </c>
+      <c r="B295" t="s">
+        <v>301</v>
+      </c>
+      <c r="C295" t="s">
+        <v>11</v>
+      </c>
+      <c r="D295">
+        <v>103</v>
+      </c>
+      <c r="E295" t="s">
+        <v>35</v>
+      </c>
+      <c r="F295">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" s="1">
+        <v>44518</v>
+      </c>
+      <c r="B296" t="s">
+        <v>302</v>
+      </c>
+      <c r="C296" t="s">
+        <v>26</v>
+      </c>
+      <c r="D296">
+        <v>119</v>
+      </c>
+      <c r="E296" t="s">
+        <v>10</v>
+      </c>
+      <c r="F296">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297" s="1">
+        <v>44519</v>
+      </c>
+      <c r="B297" t="s">
+        <v>303</v>
+      </c>
+      <c r="C297" t="s">
+        <v>31</v>
+      </c>
+      <c r="D297">
+        <v>105</v>
+      </c>
+      <c r="E297" t="s">
+        <v>50</v>
+      </c>
+      <c r="F297">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" s="1">
+        <v>44519</v>
+      </c>
+      <c r="B298" t="s">
+        <v>102</v>
+      </c>
+      <c r="C298" t="s">
+        <v>22</v>
+      </c>
+      <c r="D298">
+        <v>121</v>
+      </c>
+      <c r="E298" t="s">
+        <v>38</v>
+      </c>
+      <c r="F298">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299" s="1">
+        <v>44519</v>
+      </c>
+      <c r="B299" t="s">
+        <v>304</v>
+      </c>
+      <c r="C299" t="s">
+        <v>7</v>
+      </c>
+      <c r="D299">
+        <v>115</v>
+      </c>
+      <c r="E299" t="s">
+        <v>17</v>
+      </c>
+      <c r="F299">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300" s="1">
+        <v>44519</v>
+      </c>
+      <c r="B300" t="s">
+        <v>305</v>
+      </c>
+      <c r="C300" t="s">
+        <v>16</v>
+      </c>
+      <c r="D300">
+        <v>130</v>
+      </c>
+      <c r="E300" t="s">
+        <v>8</v>
+      </c>
+      <c r="F300">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301" s="1">
+        <v>44519</v>
+      </c>
+      <c r="B301" t="s">
+        <v>306</v>
+      </c>
+      <c r="C301" t="s">
+        <v>20</v>
+      </c>
+      <c r="D301">
+        <v>94</v>
+      </c>
+      <c r="E301" t="s">
+        <v>34</v>
+      </c>
+      <c r="F301">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302" s="1">
+        <v>44519</v>
+      </c>
+      <c r="B302" t="s">
+        <v>72</v>
+      </c>
+      <c r="C302" t="s">
+        <v>47</v>
+      </c>
+      <c r="D302">
+        <v>96</v>
+      </c>
+      <c r="E302" t="s">
+        <v>23</v>
+      </c>
+      <c r="F302">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303" s="1">
+        <v>44519</v>
+      </c>
+      <c r="B303" t="s">
+        <v>307</v>
+      </c>
+      <c r="C303" t="s">
+        <v>43</v>
+      </c>
+      <c r="D303">
+        <v>114</v>
+      </c>
+      <c r="E303" t="s">
+        <v>35</v>
+      </c>
+      <c r="F303">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304" s="1">
+        <v>44520</v>
+      </c>
+      <c r="B304" t="s">
+        <v>308</v>
+      </c>
+      <c r="C304" t="s">
+        <v>10</v>
+      </c>
+      <c r="D304">
+        <v>108</v>
+      </c>
+      <c r="E304" t="s">
+        <v>28</v>
+      </c>
+      <c r="F304">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="A305" s="1">
+        <v>44520</v>
+      </c>
+      <c r="B305" t="s">
+        <v>295</v>
+      </c>
+      <c r="C305" t="s">
+        <v>29</v>
+      </c>
+      <c r="D305">
+        <v>112</v>
+      </c>
+      <c r="E305" t="s">
+        <v>54</v>
+      </c>
+      <c r="F305">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306" s="1">
+        <v>44520</v>
+      </c>
+      <c r="B306" t="s">
+        <v>309</v>
+      </c>
+      <c r="C306" t="s">
+        <v>37</v>
+      </c>
+      <c r="D306">
+        <v>106</v>
+      </c>
+      <c r="E306" t="s">
+        <v>40</v>
+      </c>
+      <c r="F306">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307" s="1">
+        <v>44520</v>
+      </c>
+      <c r="B307" t="s">
+        <v>310</v>
+      </c>
+      <c r="C307" t="s">
+        <v>41</v>
+      </c>
+      <c r="D307">
+        <v>103</v>
+      </c>
+      <c r="E307" t="s">
+        <v>13</v>
+      </c>
+      <c r="F307">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
+      <c r="A308" s="1">
+        <v>44520</v>
+      </c>
+      <c r="B308" t="s">
+        <v>311</v>
+      </c>
+      <c r="C308" t="s">
+        <v>38</v>
+      </c>
+      <c r="D308">
+        <v>111</v>
+      </c>
+      <c r="E308" t="s">
+        <v>20</v>
+      </c>
+      <c r="F308">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
+      <c r="A309" s="1">
+        <v>44520</v>
+      </c>
+      <c r="B309" t="s">
+        <v>312</v>
+      </c>
+      <c r="C309" t="s">
+        <v>16</v>
+      </c>
+      <c r="D309">
+        <v>111</v>
+      </c>
+      <c r="E309" t="s">
+        <v>23</v>
+      </c>
+      <c r="F309">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
+      <c r="A310" s="1">
+        <v>44520</v>
+      </c>
+      <c r="B310" t="s">
+        <v>313</v>
+      </c>
+      <c r="C310" t="s">
+        <v>14</v>
+      </c>
+      <c r="D310">
+        <v>115</v>
+      </c>
+      <c r="E310" t="s">
+        <v>22</v>
+      </c>
+      <c r="F310">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
+      <c r="A311" s="1">
+        <v>44520</v>
+      </c>
+      <c r="B311" t="s">
+        <v>314</v>
+      </c>
+      <c r="C311" t="s">
+        <v>47</v>
+      </c>
+      <c r="D311">
+        <v>117</v>
+      </c>
+      <c r="E311" t="s">
+        <v>17</v>
+      </c>
+      <c r="F311">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312" s="1">
+        <v>44520</v>
+      </c>
+      <c r="B312" t="s">
+        <v>315</v>
+      </c>
+      <c r="C312" t="s">
+        <v>19</v>
+      </c>
+      <c r="D312">
+        <v>138</v>
+      </c>
+      <c r="E312" t="s">
+        <v>46</v>
+      </c>
+      <c r="F312">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
+      <c r="A313" s="1">
+        <v>44521</v>
+      </c>
+      <c r="B313" t="s">
+        <v>316</v>
+      </c>
+      <c r="C313" t="s">
+        <v>32</v>
+      </c>
+      <c r="D313">
+        <v>118</v>
+      </c>
+      <c r="E313" t="s">
+        <v>11</v>
+      </c>
+      <c r="F313">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
+      <c r="A314" s="1">
+        <v>44521</v>
+      </c>
+      <c r="B314" t="s">
+        <v>120</v>
+      </c>
+      <c r="C314" t="s">
+        <v>26</v>
+      </c>
+      <c r="D314">
+        <v>123</v>
+      </c>
+      <c r="E314" t="s">
+        <v>28</v>
+      </c>
+      <c r="F314">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
+      <c r="A315" s="1">
+        <v>44521</v>
+      </c>
+      <c r="B315" t="s">
+        <v>317</v>
+      </c>
+      <c r="C315" t="s">
+        <v>34</v>
+      </c>
+      <c r="D315">
+        <v>97</v>
+      </c>
+      <c r="E315" t="s">
+        <v>54</v>
+      </c>
+      <c r="F315">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
+      <c r="A316" s="1">
+        <v>44521</v>
+      </c>
+      <c r="B316" t="s">
+        <v>318</v>
+      </c>
+      <c r="C316" t="s">
+        <v>8</v>
+      </c>
+      <c r="D316">
+        <v>121</v>
+      </c>
+      <c r="E316" t="s">
+        <v>50</v>
+      </c>
+      <c r="F316">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
+      <c r="A317" s="1">
+        <v>44521</v>
+      </c>
+      <c r="B317" t="s">
+        <v>160</v>
+      </c>
+      <c r="C317" t="s">
+        <v>43</v>
+      </c>
+      <c r="D317">
+        <v>109</v>
+      </c>
+      <c r="E317" t="s">
+        <v>37</v>
+      </c>
+      <c r="F317">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
+      <c r="A318" s="1">
+        <v>44521</v>
+      </c>
+      <c r="B318" t="s">
+        <v>111</v>
+      </c>
+      <c r="C318" t="s">
+        <v>29</v>
+      </c>
+      <c r="D318">
+        <v>126</v>
+      </c>
+      <c r="E318" t="s">
+        <v>35</v>
+      </c>
+      <c r="F318">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
+      <c r="A319" s="1">
+        <v>44521</v>
+      </c>
+      <c r="B319" t="s">
+        <v>319</v>
+      </c>
+      <c r="C319" t="s">
+        <v>31</v>
+      </c>
+      <c r="D319">
+        <v>119</v>
+      </c>
+      <c r="E319" t="s">
+        <v>10</v>
+      </c>
+      <c r="F319">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
+      <c r="A320" s="1">
+        <v>44522</v>
+      </c>
+      <c r="B320" t="s">
+        <v>320</v>
+      </c>
+      <c r="C320" t="s">
+        <v>22</v>
+      </c>
+      <c r="D320">
+        <v>109</v>
+      </c>
+      <c r="E320" t="s">
+        <v>41</v>
+      </c>
+      <c r="F320">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6">
+      <c r="A321" s="1">
+        <v>44522</v>
+      </c>
+      <c r="B321" t="s">
+        <v>321</v>
+      </c>
+      <c r="C321" t="s">
+        <v>7</v>
+      </c>
+      <c r="D321">
+        <v>117</v>
+      </c>
+      <c r="E321" t="s">
+        <v>44</v>
+      </c>
+      <c r="F321">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
+      <c r="A322" s="1">
+        <v>44522</v>
+      </c>
+      <c r="B322" t="s">
+        <v>322</v>
+      </c>
+      <c r="C322" t="s">
+        <v>14</v>
+      </c>
+      <c r="D322">
+        <v>113</v>
+      </c>
+      <c r="E322" t="s">
+        <v>23</v>
+      </c>
+      <c r="F322">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
+      <c r="A323" s="1">
+        <v>44522</v>
+      </c>
+      <c r="B323" t="s">
+        <v>323</v>
+      </c>
+      <c r="C323" t="s">
+        <v>16</v>
+      </c>
+      <c r="D323">
+        <v>108</v>
+      </c>
+      <c r="E323" t="s">
+        <v>40</v>
+      </c>
+      <c r="F323">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
+      <c r="A324" s="1">
+        <v>44522</v>
+      </c>
+      <c r="B324" t="s">
+        <v>324</v>
+      </c>
+      <c r="C324" t="s">
+        <v>19</v>
+      </c>
+      <c r="D324">
+        <v>110</v>
+      </c>
+      <c r="E324" t="s">
+        <v>20</v>
+      </c>
+      <c r="F324">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
+      <c r="A325" s="1">
+        <v>44522</v>
+      </c>
+      <c r="B325" t="s">
+        <v>325</v>
+      </c>
+      <c r="C325" t="s">
+        <v>38</v>
+      </c>
+      <c r="D325">
+        <v>109</v>
+      </c>
+      <c r="E325" t="s">
+        <v>43</v>
+      </c>
+      <c r="F325">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
+      <c r="A326" s="1">
+        <v>44522</v>
+      </c>
+      <c r="B326" t="s">
+        <v>314</v>
+      </c>
+      <c r="C326" t="s">
+        <v>47</v>
+      </c>
+      <c r="D326">
+        <v>123</v>
+      </c>
+      <c r="E326" t="s">
+        <v>17</v>
+      </c>
+      <c r="F326">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6">
+      <c r="A327" s="1">
+        <v>44522</v>
+      </c>
+      <c r="B327" t="s">
+        <v>326</v>
+      </c>
+      <c r="C327" t="s">
+        <v>29</v>
+      </c>
+      <c r="D327">
+        <v>115</v>
+      </c>
+      <c r="E327" t="s">
+        <v>25</v>
+      </c>
+      <c r="F327">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
+      <c r="A328" s="1">
+        <v>44522</v>
+      </c>
+      <c r="B328" t="s">
+        <v>327</v>
+      </c>
+      <c r="C328" t="s">
+        <v>46</v>
+      </c>
+      <c r="D328">
+        <v>119</v>
+      </c>
+      <c r="E328" t="s">
+        <v>26</v>
+      </c>
+      <c r="F328">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6">
+      <c r="A329" s="1">
+        <v>44523</v>
+      </c>
+      <c r="B329" t="s">
+        <v>328</v>
+      </c>
+      <c r="C329" t="s">
+        <v>11</v>
+      </c>
+      <c r="D329">
+        <v>102</v>
+      </c>
+      <c r="E329" t="s">
+        <v>28</v>
+      </c>
+      <c r="F329">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6">
+      <c r="A330" s="1">
+        <v>44523</v>
+      </c>
+      <c r="B330" t="s">
+        <v>329</v>
+      </c>
+      <c r="C330" t="s">
+        <v>13</v>
+      </c>
+      <c r="D330">
+        <v>100</v>
+      </c>
+      <c r="E330" t="s">
+        <v>50</v>
+      </c>
+      <c r="F330">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6">
+      <c r="A331" s="1">
+        <v>44523</v>
+      </c>
+      <c r="B331" t="s">
+        <v>330</v>
+      </c>
+      <c r="C331" t="s">
+        <v>37</v>
+      </c>
+      <c r="D331">
+        <v>106</v>
+      </c>
+      <c r="E331" t="s">
+        <v>8</v>
+      </c>
+      <c r="F331">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6">
+      <c r="A332" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B332" t="s">
+        <v>331</v>
+      </c>
+      <c r="C332" t="s">
+        <v>32</v>
+      </c>
+      <c r="D332">
+        <v>119</v>
+      </c>
+      <c r="E332" t="s">
+        <v>35</v>
+      </c>
+      <c r="F332">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6">
+      <c r="A333" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B333" t="s">
+        <v>317</v>
+      </c>
+      <c r="C333" t="s">
+        <v>54</v>
+      </c>
+      <c r="D333">
+        <v>112</v>
+      </c>
+      <c r="E333" t="s">
+        <v>34</v>
+      </c>
+      <c r="F333">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6">
+      <c r="A334" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B334" t="s">
+        <v>332</v>
+      </c>
+      <c r="C334" t="s">
+        <v>8</v>
+      </c>
+      <c r="D334">
+        <v>124</v>
+      </c>
+      <c r="E334" t="s">
+        <v>38</v>
+      </c>
+      <c r="F334">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6">
+      <c r="A335" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B335" t="s">
+        <v>147</v>
+      </c>
+      <c r="C335" t="s">
+        <v>22</v>
+      </c>
+      <c r="D335">
+        <v>106</v>
+      </c>
+      <c r="E335" t="s">
+        <v>17</v>
+      </c>
+      <c r="F335">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6">
+      <c r="A336" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B336" t="s">
+        <v>333</v>
+      </c>
+      <c r="C336" t="s">
+        <v>29</v>
+      </c>
+      <c r="D336">
+        <v>120</v>
+      </c>
+      <c r="E336" t="s">
+        <v>44</v>
+      </c>
+      <c r="F336">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6">
+      <c r="A337" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B337" t="s">
+        <v>334</v>
+      </c>
+      <c r="C337" t="s">
+        <v>7</v>
+      </c>
+      <c r="D337">
+        <v>123</v>
+      </c>
+      <c r="E337" t="s">
+        <v>16</v>
+      </c>
+      <c r="F337">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6">
+      <c r="A338" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B338" t="s">
+        <v>335</v>
+      </c>
+      <c r="C338" t="s">
+        <v>20</v>
+      </c>
+      <c r="D338">
+        <v>127</v>
+      </c>
+      <c r="E338" t="s">
+        <v>41</v>
+      </c>
+      <c r="F338">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
+      <c r="A339" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B339" t="s">
+        <v>336</v>
+      </c>
+      <c r="C339" t="s">
+        <v>40</v>
+      </c>
+      <c r="D339">
+        <v>118</v>
+      </c>
+      <c r="E339" t="s">
+        <v>43</v>
+      </c>
+      <c r="F339">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
+      <c r="A340" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B340" t="s">
+        <v>337</v>
+      </c>
+      <c r="C340" t="s">
+        <v>19</v>
+      </c>
+      <c r="D340">
+        <v>113</v>
+      </c>
+      <c r="E340" t="s">
+        <v>13</v>
+      </c>
+      <c r="F340">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
+      <c r="A341" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B341" t="s">
+        <v>338</v>
+      </c>
+      <c r="C341" t="s">
+        <v>26</v>
+      </c>
+      <c r="D341">
+        <v>110</v>
+      </c>
+      <c r="E341" t="s">
+        <v>23</v>
+      </c>
+      <c r="F341">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6">
+      <c r="A342" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B342" t="s">
+        <v>339</v>
+      </c>
+      <c r="C342" t="s">
+        <v>47</v>
+      </c>
+      <c r="D342">
+        <v>114</v>
+      </c>
+      <c r="E342" t="s">
+        <v>50</v>
+      </c>
+      <c r="F342">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
+      <c r="A343" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B343" t="s">
+        <v>340</v>
+      </c>
+      <c r="C343" t="s">
+        <v>10</v>
+      </c>
+      <c r="D343">
+        <v>126</v>
+      </c>
+      <c r="E343" t="s">
+        <v>46</v>
+      </c>
+      <c r="F343">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6">
+      <c r="A344" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B344" t="s">
+        <v>341</v>
+      </c>
+      <c r="C344" t="s">
+        <v>14</v>
+      </c>
+      <c r="D344">
+        <v>124</v>
+      </c>
+      <c r="E344" t="s">
+        <v>25</v>
+      </c>
+      <c r="F344">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6">
+      <c r="A345" s="1">
+        <v>44525</v>
+      </c>
+      <c r="B345" t="s">
+        <v>342</v>
+      </c>
+      <c r="C345" t="s">
+        <v>31</v>
+      </c>
+      <c r="D345">
+        <v>116</v>
+      </c>
+      <c r="E345" t="s">
+        <v>11</v>
+      </c>
+      <c r="F345">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6">
+      <c r="A346" s="1">
+        <v>44525</v>
+      </c>
+      <c r="B346" t="s">
+        <v>343</v>
+      </c>
+      <c r="C346" t="s">
+        <v>28</v>
+      </c>
+      <c r="D346">
+        <v>125</v>
+      </c>
+      <c r="E346" t="s">
+        <v>32</v>
+      </c>
+      <c r="F346">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6">
+      <c r="A347" s="1">
+        <v>44526</v>
+      </c>
+      <c r="B347" t="s">
+        <v>344</v>
+      </c>
+      <c r="C347" t="s">
+        <v>34</v>
+      </c>
+      <c r="D347">
+        <v>107</v>
+      </c>
+      <c r="E347" t="s">
+        <v>50</v>
+      </c>
+      <c r="F347">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6">
+      <c r="A348" s="1">
+        <v>44526</v>
+      </c>
+      <c r="B348" t="s">
+        <v>345</v>
+      </c>
+      <c r="C348" t="s">
+        <v>43</v>
+      </c>
+      <c r="D348">
+        <v>123</v>
+      </c>
+      <c r="E348" t="s">
+        <v>17</v>
+      </c>
+      <c r="F348">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6">
+      <c r="A349" s="1">
+        <v>44526</v>
+      </c>
+      <c r="B349" t="s">
+        <v>346</v>
+      </c>
+      <c r="C349" t="s">
+        <v>29</v>
+      </c>
+      <c r="D349">
+        <v>118</v>
+      </c>
+      <c r="E349" t="s">
+        <v>37</v>
+      </c>
+      <c r="F349">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6">
+      <c r="A350" s="1">
+        <v>44526</v>
+      </c>
+      <c r="B350" t="s">
+        <v>347</v>
+      </c>
+      <c r="C350" t="s">
+        <v>22</v>
+      </c>
+      <c r="D350">
+        <v>133</v>
+      </c>
+      <c r="E350" t="s">
+        <v>19</v>
+      </c>
+      <c r="F350">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6">
+      <c r="A351" s="1">
+        <v>44526</v>
+      </c>
+      <c r="B351" t="s">
+        <v>69</v>
+      </c>
+      <c r="C351" t="s">
+        <v>14</v>
+      </c>
+      <c r="D351">
+        <v>132</v>
+      </c>
+      <c r="E351" t="s">
+        <v>46</v>
+      </c>
+      <c r="F351">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6">
+      <c r="A352" s="1">
+        <v>44526</v>
+      </c>
+      <c r="B352" t="s">
+        <v>348</v>
+      </c>
+      <c r="C352" t="s">
+        <v>41</v>
+      </c>
+      <c r="D352">
+        <v>101</v>
+      </c>
+      <c r="E352" t="s">
+        <v>23</v>
+      </c>
+      <c r="F352">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
+      <c r="A353" s="1">
+        <v>44526</v>
+      </c>
+      <c r="B353" t="s">
+        <v>172</v>
+      </c>
+      <c r="C353" t="s">
+        <v>38</v>
+      </c>
+      <c r="D353">
+        <v>114</v>
+      </c>
+      <c r="E353" t="s">
+        <v>10</v>
+      </c>
+      <c r="F353">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
+      <c r="A354" s="1">
+        <v>44526</v>
+      </c>
+      <c r="B354" t="s">
+        <v>349</v>
+      </c>
+      <c r="C354" t="s">
+        <v>25</v>
+      </c>
+      <c r="D354">
+        <v>96</v>
+      </c>
+      <c r="E354" t="s">
+        <v>16</v>
+      </c>
+      <c r="F354">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
+      <c r="A355" s="1">
+        <v>44526</v>
+      </c>
+      <c r="B355" t="s">
+        <v>350</v>
+      </c>
+      <c r="C355" t="s">
+        <v>47</v>
+      </c>
+      <c r="D355">
+        <v>120</v>
+      </c>
+      <c r="E355" t="s">
+        <v>35</v>
+      </c>
+      <c r="F355">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
+      <c r="A356" s="1">
+        <v>44526</v>
+      </c>
+      <c r="B356" t="s">
+        <v>78</v>
+      </c>
+      <c r="C356" t="s">
+        <v>20</v>
+      </c>
+      <c r="D356">
+        <v>98</v>
+      </c>
+      <c r="E356" t="s">
+        <v>26</v>
+      </c>
+      <c r="F356">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6">
+      <c r="A357" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B357" t="s">
+        <v>100</v>
+      </c>
+      <c r="C357" t="s">
+        <v>31</v>
+      </c>
+      <c r="D357">
+        <v>118</v>
+      </c>
+      <c r="E357" t="s">
+        <v>32</v>
+      </c>
+      <c r="F357">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6">
+      <c r="A358" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B358" t="s">
+        <v>351</v>
+      </c>
+      <c r="C358" t="s">
+        <v>28</v>
+      </c>
+      <c r="D358">
+        <v>143</v>
+      </c>
+      <c r="E358" t="s">
+        <v>8</v>
+      </c>
+      <c r="F358">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
+      <c r="A359" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B359" t="s">
+        <v>352</v>
+      </c>
+      <c r="C359" t="s">
+        <v>19</v>
+      </c>
+      <c r="D359">
+        <v>121</v>
+      </c>
+      <c r="E359" t="s">
+        <v>11</v>
+      </c>
+      <c r="F359">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
+      <c r="A360" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B360" t="s">
+        <v>353</v>
+      </c>
+      <c r="C360" t="s">
+        <v>29</v>
+      </c>
+      <c r="D360">
+        <v>113</v>
+      </c>
+      <c r="E360" t="s">
+        <v>7</v>
+      </c>
+      <c r="F360">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6">
+      <c r="A361" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B361" t="s">
+        <v>354</v>
+      </c>
+      <c r="C361" t="s">
+        <v>37</v>
+      </c>
+      <c r="D361">
+        <v>99</v>
+      </c>
+      <c r="E361" t="s">
+        <v>14</v>
+      </c>
+      <c r="F361">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6">
+      <c r="A362" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B362" t="s">
+        <v>355</v>
+      </c>
+      <c r="C362" t="s">
+        <v>44</v>
+      </c>
+      <c r="D362">
+        <v>105</v>
+      </c>
+      <c r="E362" t="s">
+        <v>17</v>
+      </c>
+      <c r="F362">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6">
+      <c r="A363" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B363" t="s">
+        <v>356</v>
+      </c>
+      <c r="C363" t="s">
+        <v>13</v>
+      </c>
+      <c r="D363">
+        <v>107</v>
+      </c>
+      <c r="E363" t="s">
+        <v>43</v>
+      </c>
+      <c r="F363">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6">
+      <c r="A364" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B364" t="s">
+        <v>357</v>
+      </c>
+      <c r="C364" t="s">
+        <v>40</v>
+      </c>
+      <c r="D364">
+        <v>146</v>
+      </c>
+      <c r="E364" t="s">
+        <v>22</v>
+      </c>
+      <c r="F364">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6">
+      <c r="A365" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B365" t="s">
+        <v>358</v>
+      </c>
+      <c r="C365" t="s">
+        <v>41</v>
+      </c>
+      <c r="D365">
+        <v>120</v>
+      </c>
+      <c r="E365" t="s">
+        <v>54</v>
+      </c>
+      <c r="F365">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6">
+      <c r="A366" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B366" t="s">
+        <v>78</v>
+      </c>
+      <c r="C366" t="s">
+        <v>26</v>
+      </c>
+      <c r="D366">
+        <v>127</v>
+      </c>
+      <c r="E366" t="s">
+        <v>20</v>
+      </c>
+      <c r="F366">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6">
+      <c r="A367" s="1">
+        <v>44528</v>
+      </c>
+      <c r="B367" t="s">
+        <v>359</v>
+      </c>
+      <c r="C367" t="s">
+        <v>31</v>
+      </c>
+      <c r="D367">
+        <v>105</v>
+      </c>
+      <c r="E367" t="s">
+        <v>34</v>
+      </c>
+      <c r="F367">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6">
+      <c r="A368" s="1">
+        <v>44528</v>
+      </c>
+      <c r="B368" t="s">
+        <v>135</v>
+      </c>
+      <c r="C368" t="s">
+        <v>47</v>
+      </c>
+      <c r="D368">
+        <v>118</v>
+      </c>
+      <c r="E368" t="s">
+        <v>38</v>
+      </c>
+      <c r="F368">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6">
+      <c r="A369" s="1">
+        <v>44528</v>
+      </c>
+      <c r="B369" t="s">
+        <v>360</v>
+      </c>
+      <c r="C369" t="s">
+        <v>46</v>
+      </c>
+      <c r="D369">
+        <v>128</v>
+      </c>
+      <c r="E369" t="s">
+        <v>28</v>
+      </c>
+      <c r="F369">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6">
+      <c r="A370" s="1">
+        <v>44528</v>
+      </c>
+      <c r="B370" t="s">
+        <v>361</v>
+      </c>
+      <c r="C370" t="s">
+        <v>16</v>
+      </c>
+      <c r="D370">
+        <v>109</v>
+      </c>
+      <c r="E370" t="s">
+        <v>10</v>
+      </c>
+      <c r="F370">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6">
+      <c r="A371" s="1">
+        <v>44528</v>
+      </c>
+      <c r="B371" t="s">
+        <v>362</v>
+      </c>
+      <c r="C371" t="s">
+        <v>8</v>
+      </c>
+      <c r="D371">
+        <v>110</v>
+      </c>
+      <c r="E371" t="s">
+        <v>50</v>
+      </c>
+      <c r="F371">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6">
+      <c r="A372" s="1">
+        <v>44529</v>
+      </c>
+      <c r="B372" t="s">
+        <v>363</v>
+      </c>
+      <c r="C372" t="s">
+        <v>11</v>
+      </c>
+      <c r="D372">
+        <v>101</v>
+      </c>
+      <c r="E372" t="s">
+        <v>17</v>
+      </c>
+      <c r="F372">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6">
+      <c r="A373" s="1">
+        <v>44529</v>
+      </c>
+      <c r="B373" t="s">
+        <v>364</v>
+      </c>
+      <c r="C373" t="s">
+        <v>35</v>
+      </c>
+      <c r="D373">
+        <v>120</v>
+      </c>
+      <c r="E373" t="s">
+        <v>13</v>
+      </c>
+      <c r="F373">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6">
+      <c r="A374" s="1">
+        <v>44529</v>
+      </c>
+      <c r="B374" t="s">
+        <v>118</v>
+      </c>
+      <c r="C374" t="s">
+        <v>40</v>
+      </c>
+      <c r="D374">
+        <v>102</v>
+      </c>
+      <c r="E374" t="s">
+        <v>23</v>
+      </c>
+      <c r="F374">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6">
+      <c r="A375" s="1">
+        <v>44529</v>
+      </c>
+      <c r="B375" t="s">
+        <v>365</v>
+      </c>
+      <c r="C375" t="s">
+        <v>19</v>
+      </c>
+      <c r="D375">
+        <v>100</v>
+      </c>
+      <c r="E375" t="s">
+        <v>38</v>
+      </c>
+      <c r="F375">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6">
+      <c r="A376" s="1">
+        <v>44529</v>
+      </c>
+      <c r="B376" t="s">
+        <v>366</v>
+      </c>
+      <c r="C376" t="s">
+        <v>43</v>
+      </c>
+      <c r="D376">
+        <v>133</v>
+      </c>
+      <c r="E376" t="s">
+        <v>22</v>
+      </c>
+      <c r="F376">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6">
+      <c r="A377" s="1">
+        <v>44529</v>
+      </c>
+      <c r="B377" t="s">
+        <v>367</v>
+      </c>
+      <c r="C377" t="s">
+        <v>25</v>
+      </c>
+      <c r="D377">
+        <v>116</v>
+      </c>
+      <c r="E377" t="s">
+        <v>41</v>
+      </c>
+      <c r="F377">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6">
+      <c r="A378" s="1">
+        <v>44529</v>
+      </c>
+      <c r="B378" t="s">
+        <v>368</v>
+      </c>
+      <c r="C378" t="s">
+        <v>44</v>
+      </c>
+      <c r="D378">
+        <v>114</v>
+      </c>
+      <c r="E378" t="s">
+        <v>54</v>
+      </c>
+      <c r="F378">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6">
+      <c r="A379" s="1">
+        <v>44529</v>
+      </c>
+      <c r="B379" t="s">
+        <v>369</v>
+      </c>
+      <c r="C379" t="s">
+        <v>26</v>
+      </c>
+      <c r="D379">
+        <v>129</v>
+      </c>
+      <c r="E379" t="s">
+        <v>32</v>
+      </c>
+      <c r="F379">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6">
+      <c r="A380" s="1">
+        <v>44530</v>
+      </c>
+      <c r="B380" t="s">
+        <v>370</v>
+      </c>
+      <c r="C380" t="s">
+        <v>20</v>
+      </c>
+      <c r="D380">
+        <v>123</v>
+      </c>
+      <c r="E380" t="s">
+        <v>34</v>
+      </c>
+      <c r="F380">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6">
+      <c r="A381" s="1">
+        <v>44530</v>
+      </c>
+      <c r="B381" t="s">
+        <v>371</v>
+      </c>
+      <c r="C381" t="s">
+        <v>46</v>
+      </c>
+      <c r="D381">
+        <v>98</v>
+      </c>
+      <c r="E381" t="s">
+        <v>10</v>
+      </c>
+      <c r="F381">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6">
+      <c r="A382" s="1">
+        <v>44530</v>
+      </c>
+      <c r="B382" t="s">
+        <v>372</v>
+      </c>
+      <c r="C382" t="s">
+        <v>7</v>
+      </c>
+      <c r="D382">
+        <v>112</v>
+      </c>
+      <c r="E382" t="s">
+        <v>37</v>
+      </c>
+      <c r="F382">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6">
+      <c r="A383" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B383" t="s">
+        <v>373</v>
+      </c>
+      <c r="C383" t="s">
+        <v>14</v>
+      </c>
+      <c r="D383">
+        <v>114</v>
+      </c>
+      <c r="E383" t="s">
+        <v>38</v>
+      </c>
+      <c r="F383">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6">
+      <c r="A384" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B384" t="s">
+        <v>374</v>
+      </c>
+      <c r="C384" t="s">
+        <v>17</v>
+      </c>
+      <c r="D384">
+        <v>108</v>
+      </c>
+      <c r="E384" t="s">
+        <v>35</v>
+      </c>
+      <c r="F384">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6">
+      <c r="A385" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B385" t="s">
+        <v>375</v>
+      </c>
+      <c r="C385" t="s">
+        <v>41</v>
+      </c>
+      <c r="D385">
+        <v>115</v>
+      </c>
+      <c r="E385" t="s">
+        <v>19</v>
+      </c>
+      <c r="F385">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6">
+      <c r="A386" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B386" t="s">
+        <v>376</v>
+      </c>
+      <c r="C386" t="s">
+        <v>16</v>
+      </c>
+      <c r="D386">
+        <v>88</v>
+      </c>
+      <c r="E386" t="s">
+        <v>11</v>
+      </c>
+      <c r="F386">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6">
+      <c r="A387" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B387" t="s">
+        <v>377</v>
+      </c>
+      <c r="C387" t="s">
+        <v>44</v>
+      </c>
+      <c r="D387">
+        <v>111</v>
+      </c>
+      <c r="E387" t="s">
+        <v>13</v>
+      </c>
+      <c r="F387">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6">
+      <c r="A388" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B388" t="s">
+        <v>378</v>
+      </c>
+      <c r="C388" t="s">
+        <v>47</v>
+      </c>
+      <c r="D388">
+        <v>127</v>
+      </c>
+      <c r="E388" t="s">
+        <v>22</v>
+      </c>
+      <c r="F388">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6">
+      <c r="A389" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B389" t="s">
+        <v>232</v>
+      </c>
+      <c r="C389" t="s">
+        <v>54</v>
+      </c>
+      <c r="D389">
+        <v>139</v>
+      </c>
+      <c r="E389" t="s">
+        <v>20</v>
+      </c>
+      <c r="F389">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6">
+      <c r="A390" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B390" t="s">
+        <v>118</v>
+      </c>
+      <c r="C390" t="s">
+        <v>40</v>
+      </c>
+      <c r="D390">
+        <v>114</v>
+      </c>
+      <c r="E390" t="s">
+        <v>23</v>
+      </c>
+      <c r="F390">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6">
+      <c r="A391" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B391" t="s">
+        <v>379</v>
+      </c>
+      <c r="C391" t="s">
+        <v>28</v>
+      </c>
+      <c r="D391">
+        <v>124</v>
+      </c>
+      <c r="E391" t="s">
+        <v>34</v>
+      </c>
+      <c r="F391">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6">
+      <c r="A392" s="1">
+        <v>44532</v>
+      </c>
+      <c r="B392" t="s">
+        <v>160</v>
+      </c>
+      <c r="C392" t="s">
+        <v>43</v>
+      </c>
+      <c r="D392">
+        <v>119</v>
+      </c>
+      <c r="E392" t="s">
+        <v>37</v>
+      </c>
+      <c r="F392">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6">
+      <c r="A393" s="1">
+        <v>44532</v>
+      </c>
+      <c r="B393" t="s">
+        <v>380</v>
+      </c>
+      <c r="C393" t="s">
+        <v>10</v>
+      </c>
+      <c r="D393">
+        <v>97</v>
+      </c>
+      <c r="E393" t="s">
+        <v>47</v>
+      </c>
+      <c r="F393">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6">
+      <c r="A394" s="1">
+        <v>44532</v>
+      </c>
+      <c r="B394" t="s">
+        <v>381</v>
+      </c>
+      <c r="C394" t="s">
+        <v>46</v>
+      </c>
+      <c r="D394">
+        <v>152</v>
+      </c>
+      <c r="E394" t="s">
+        <v>23</v>
+      </c>
+      <c r="F394">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6">
+      <c r="A395" s="1">
+        <v>44532</v>
+      </c>
+      <c r="B395" t="s">
+        <v>382</v>
+      </c>
+      <c r="C395" t="s">
+        <v>29</v>
+      </c>
+      <c r="D395">
+        <v>114</v>
+      </c>
+      <c r="E395" t="s">
+        <v>50</v>
+      </c>
+      <c r="F395">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6">
+      <c r="A396" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B396" t="s">
+        <v>383</v>
+      </c>
+      <c r="C396" t="s">
+        <v>25</v>
+      </c>
+      <c r="D396">
+        <v>114</v>
+      </c>
+      <c r="E396" t="s">
+        <v>32</v>
+      </c>
+      <c r="F396">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6">
+      <c r="A397" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B397" t="s">
+        <v>122</v>
+      </c>
+      <c r="C397" t="s">
+        <v>13</v>
+      </c>
+      <c r="D397">
+        <v>113</v>
+      </c>
+      <c r="E397" t="s">
+        <v>38</v>
+      </c>
+      <c r="F397">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6">
+      <c r="A398" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B398" t="s">
+        <v>384</v>
+      </c>
+      <c r="C398" t="s">
+        <v>44</v>
+      </c>
+      <c r="D398">
+        <v>116</v>
+      </c>
+      <c r="E398" t="s">
+        <v>41</v>
+      </c>
+      <c r="F398">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6">
+      <c r="A399" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B399" t="s">
+        <v>385</v>
+      </c>
+      <c r="C399" t="s">
+        <v>11</v>
+      </c>
+      <c r="D399">
+        <v>98</v>
+      </c>
+      <c r="E399" t="s">
+        <v>14</v>
+      </c>
+      <c r="F399">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6">
+      <c r="A400" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B400" t="s">
+        <v>91</v>
+      </c>
+      <c r="C400" t="s">
+        <v>7</v>
+      </c>
+      <c r="D400">
+        <v>110</v>
+      </c>
+      <c r="E400" t="s">
+        <v>19</v>
+      </c>
+      <c r="F400">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6">
+      <c r="A401" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B401" t="s">
+        <v>386</v>
+      </c>
+      <c r="C401" t="s">
+        <v>40</v>
+      </c>
+      <c r="D401">
+        <v>118</v>
+      </c>
+      <c r="E401" t="s">
+        <v>17</v>
+      </c>
+      <c r="F401">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6">
+      <c r="A402" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B402" t="s">
+        <v>232</v>
+      </c>
+      <c r="C402" t="s">
+        <v>20</v>
+      </c>
+      <c r="D402">
+        <v>107</v>
+      </c>
+      <c r="E402" t="s">
+        <v>54</v>
+      </c>
+      <c r="F402">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6">
+      <c r="A403" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B403" t="s">
+        <v>387</v>
+      </c>
+      <c r="C403" t="s">
+        <v>26</v>
+      </c>
+      <c r="D403">
+        <v>137</v>
+      </c>
+      <c r="E403" t="s">
+        <v>16</v>
+      </c>
+      <c r="F403">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6">
+      <c r="A404" s="1">
+        <v>44534</v>
+      </c>
+      <c r="B404" t="s">
+        <v>388</v>
+      </c>
+      <c r="C404" t="s">
+        <v>34</v>
+      </c>
+      <c r="D404">
+        <v>119</v>
+      </c>
+      <c r="E404" t="s">
+        <v>8</v>
+      </c>
+      <c r="F404">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6">
+      <c r="A405" s="1">
+        <v>44534</v>
+      </c>
+      <c r="B405" t="s">
+        <v>389</v>
+      </c>
+      <c r="C405" t="s">
+        <v>35</v>
+      </c>
+      <c r="D405">
+        <v>113</v>
+      </c>
+      <c r="E405" t="s">
+        <v>37</v>
+      </c>
+      <c r="F405">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6">
+      <c r="A406" s="1">
+        <v>44534</v>
+      </c>
+      <c r="B406" t="s">
+        <v>390</v>
+      </c>
+      <c r="C406" t="s">
+        <v>47</v>
+      </c>
+      <c r="D406">
+        <v>124</v>
+      </c>
+      <c r="E406" t="s">
+        <v>13</v>
+      </c>
+      <c r="F406">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6">
+      <c r="A407" s="1">
+        <v>44534</v>
+      </c>
+      <c r="B407" t="s">
+        <v>391</v>
+      </c>
+      <c r="C407" t="s">
+        <v>46</v>
+      </c>
+      <c r="D407">
+        <v>97</v>
+      </c>
+      <c r="E407" t="s">
+        <v>54</v>
+      </c>
+      <c r="F407">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6">
+      <c r="A408" s="1">
+        <v>44534</v>
+      </c>
+      <c r="B408" t="s">
+        <v>392</v>
+      </c>
+      <c r="C408" t="s">
+        <v>31</v>
+      </c>
+      <c r="D408">
+        <v>118</v>
+      </c>
+      <c r="E408" t="s">
+        <v>29</v>
+      </c>
+      <c r="F408">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6">
+      <c r="A409" s="1">
+        <v>44534</v>
+      </c>
+      <c r="B409" t="s">
+        <v>393</v>
+      </c>
+      <c r="C409" t="s">
+        <v>43</v>
+      </c>
+      <c r="D409">
+        <v>111</v>
+      </c>
+      <c r="E409" t="s">
+        <v>7</v>
+      </c>
+      <c r="F409">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6">
+      <c r="A410" s="1">
+        <v>44534</v>
+      </c>
+      <c r="B410" t="s">
+        <v>394</v>
+      </c>
+      <c r="C410" t="s">
+        <v>25</v>
+      </c>
+      <c r="D410">
+        <v>112</v>
+      </c>
+      <c r="E410" t="s">
+        <v>31</v>
+      </c>
+      <c r="F410">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6">
+      <c r="A411" s="1">
+        <v>44535</v>
+      </c>
+      <c r="B411" t="s">
+        <v>395</v>
+      </c>
+      <c r="C411" t="s">
+        <v>16</v>
+      </c>
+      <c r="D411">
+        <v>145</v>
+      </c>
+      <c r="E411" t="s">
+        <v>32</v>
+      </c>
+      <c r="F411">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6">
+      <c r="A412" s="1">
+        <v>44535</v>
+      </c>
+      <c r="B412" t="s">
+        <v>379</v>
+      </c>
+      <c r="C412" t="s">
+        <v>28</v>
+      </c>
+      <c r="D412">
+        <v>104</v>
+      </c>
+      <c r="E412" t="s">
+        <v>34</v>
+      </c>
+      <c r="F412">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
